--- a/data/trans_dic/P9_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P9_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee tableta en su vivienda actual</t>
+          <t>Población que posee tableta en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,12 +602,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,49%</t>
+          <t>61,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>59,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>60,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,06%</t>
+          <t>60,3%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>54,03; 68,14</t>
+          <t>53,69; 69,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,94; 66,51</t>
+          <t>51,32; 67,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,5; 60,48</t>
+          <t>44,97; 61,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,99; 68,96</t>
+          <t>52,35; 68,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,39; 63,16</t>
+          <t>52,18; 62,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,3; 65,47</t>
+          <t>54,51; 65,66</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>46,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>52,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>58,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>57,2%</t>
+          <t>57,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>52,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,95%</t>
+          <t>55,1%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,77; 55,21</t>
+          <t>37,65; 55,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,56; 62,64</t>
+          <t>41,67; 61,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,35; 64,53</t>
+          <t>51,27; 64,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,6; 64,61</t>
+          <t>49,6; 65,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,54; 57,2</t>
+          <t>46,16; 57,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,41; 60,84</t>
+          <t>47,25; 61,15</t>
         </is>
       </c>
     </row>
@@ -761,12 +762,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>61,86%</t>
+          <t>61,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>58,48%</t>
+          <t>57,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>63,3%</t>
+          <t>62,74%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,68; 68,73</t>
+          <t>54,94; 68,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>49,61; 67,12</t>
+          <t>49,11; 64,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,08; 70,83</t>
+          <t>60,56; 71,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>61,93; 73,01</t>
+          <t>62,92; 73,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,02; 68,16</t>
+          <t>59,58; 68,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,0; 68,17</t>
+          <t>57,52; 67,21</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>60,27%</t>
+          <t>60,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,17 +857,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>57,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>56,63%</t>
+          <t>56,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>59,23%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,64; 68,15</t>
+          <t>56,3; 67,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,53; 66,47</t>
+          <t>53,92; 67,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,27; 56,37</t>
+          <t>46,26; 56,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,05; 64,26</t>
+          <t>52,33; 63,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,27; 60,71</t>
+          <t>52,51; 60,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,82; 63,26</t>
+          <t>54,46; 63,12</t>
         </is>
       </c>
     </row>
@@ -921,12 +922,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>52,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +937,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>47,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>50,1%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,64; 57,56</t>
+          <t>43,93; 57,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,0; 59,56</t>
+          <t>45,08; 59,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,64; 49,4</t>
+          <t>36,57; 49,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40,87; 54,67</t>
+          <t>40,77; 55,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>41,92; 51,73</t>
+          <t>42,3; 51,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,12; 54,8</t>
+          <t>45,37; 55,19</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1002,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>29,44%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,69; 38,39</t>
+          <t>24,3; 38,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,84; 41,76</t>
+          <t>26,55; 42,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,73; 28,94</t>
+          <t>18,74; 28,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,72; 32,61</t>
+          <t>20,69; 32,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,97; 31,02</t>
+          <t>22,8; 31,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,39; 34,28</t>
+          <t>24,78; 34,88</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>52,99%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>52,58%</t>
+          <t>52,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>52,78%</t>
+          <t>52,81%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>49,84; 55,89</t>
+          <t>49,87; 55,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>49,62; 56,46</t>
+          <t>49,63; 56,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,94; 51,35</t>
+          <t>46,1; 51,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>49,76; 55,07</t>
+          <t>49,69; 55,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>48,81; 52,65</t>
+          <t>48,54; 52,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,38; 54,78</t>
+          <t>50,75; 55,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee tableta en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>315457</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>299954</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>246794</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>285430</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>562252</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>585384</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>275434; 356131</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>257638; 340025</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>208142; 283667</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>245403; 321566</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>509155; 612746</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>529226; 637486</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>262235</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>302959</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>303297</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>298909</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>565532</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>601867</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>212140; 312784</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>238901; 353573</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>266042; 337131</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>257439; 338104</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>499531; 621132</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>516104; 667951</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>418165</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>392685</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>458417</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>484976</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>876582</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>877661</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>371314; 466179</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>337058; 441834</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>420418; 493427</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>448261; 524897</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>816293; 935608</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>804636; 940161</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>364.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>338.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>397363</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>392730</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>362536</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>396676</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>759899</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>789406</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>359479; 433172</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>348972; 435121</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>325319; 400724</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>358799; 436288</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>704471; 810404</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>725832; 841306</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>260288</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>261440</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>215670</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>241747</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>475958</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>503187</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>224896; 294196</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>223291; 294083</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>183744; 247828</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>207516; 281934</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>429022; 520309</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>455711; 554298</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>170538</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>184783</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>171163</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>187054</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>341701</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>371838</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>132871; 210334</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>144731; 230931</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>137028; 211620</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>148467; 233355</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>291370; 398082</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>312942; 440539</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>739.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>642.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>801.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>732.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1540.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1374.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1824046</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1834552</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1757877</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1894791</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3581924</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3729343</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1720237; 1926551</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1711892; 1954161</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1665403; 1851886</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1795275; 2003056</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3427892; 3732939</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3584159; 3894785</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>